--- a/biology/Botanique/Rhigopsidius/Rhigopsidius.xlsx
+++ b/biology/Botanique/Rhigopsidius/Rhigopsidius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhigopsidius est un genre d'insectes coléoptères, de la famille des Curculionidae, originaires d'Amérique du Sud.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre comprend deux espèces, Rhigopsidius tucumanus Heller et Rhigopsidius piercei Heller[1]. Toutefois, celles-ci sont considérées comme des synonymes par certains auteurs[2].
-Ces insectes, connus en Argentine sous le nom de « gorgojo de los Andes » (charançon des Andes) sont des ravageurs de la pomme de terre. Comme c'est le cas pour les espèces du genre Premnotrypes, leurs larves vivent dans galeries creusées dans les tubercules de pomme de terre causant des dommages économiques importants dans les régions andines tant en culture qu'en phase d'entreposage[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend deux espèces, Rhigopsidius tucumanus Heller et Rhigopsidius piercei Heller. Toutefois, celles-ci sont considérées comme des synonymes par certains auteurs.
+Ces insectes, connus en Argentine sous le nom de « gorgojo de los Andes » (charançon des Andes) sont des ravageurs de la pomme de terre. Comme c'est le cas pour les espèces du genre Premnotrypes, leurs larves vivent dans galeries creusées dans les tubercules de pomme de terre causant des dommages économiques importants dans les régions andines tant en culture qu'en phase d'entreposage.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition des espèces de ce genre s'étend uniquement dans la cordillère des Andes depuis le nord-ouest de l'Argentine et la Bolivie jusqu'au sud du Pérou. On les rencontre à des altitudes comprises entre 2 800 et 4 100 mètres dans des régions où la pomme de terre qui est en pratique l'une des rares plantes cultivées est leur hôte principal avec les espèces de Solanum apparentées.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 août 2014)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 août 2014) :
 Rhigopsidius piercei
 Rhigopsidius tucumanus</t>
         </is>
